--- a/outputs/cfg_data.xlsx
+++ b/outputs/cfg_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uri_9\Desktop\Master\TFM\4.Code\UC\Calo-ML\outputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\turbo\Python projects\Physics\Calo-ML\Calo-ML\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DE87CD-B1B8-49B5-8D46-BCE3DB292BDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8508"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -437,14 +438,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:T1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
